--- a/Assets/Excels/Games/WMG/WMGQuestion.xlsx
+++ b/Assets/Excels/Games/WMG/WMGQuestion.xlsx
@@ -66,26 +66,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>あ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -106,26 +86,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>か</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>き</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>く</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>け</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>こ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>!</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -144,13 +104,47 @@
   <si>
     <t>%</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ଛ</t>
+  </si>
+  <si>
+    <t>ક</t>
+  </si>
+  <si>
+    <t>કૃ</t>
+  </si>
+  <si>
+    <t>ଏ</t>
+  </si>
+  <si>
+    <t>क</t>
+  </si>
+  <si>
+    <t>Δ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ω</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Σ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>†</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ћ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +159,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,8 +189,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,7 +479,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -502,17 +505,17 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -520,16 +523,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -537,16 +540,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -554,16 +557,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -571,16 +574,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
